--- a/rankFile.xlsx
+++ b/rankFile.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">

--- a/rankFile.xlsx
+++ b/rankFile.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">

--- a/rankFile.xlsx
+++ b/rankFile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -464,10 +464,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>levi</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>computer</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/rankFile.xlsx
+++ b/rankFile.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
